--- a/Components/Collazo_Albert_1601_BurnUpList.xlsx
+++ b/Components/Collazo_Albert_1601_BurnUpList.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlbertCollazo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlbertCollazo/Collazo_Albert_Portfolio/Components/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13240" yWindow="720" windowWidth="19680" windowHeight="13560"/>
+    <workbookView xWindow="5820" yWindow="1360" windowWidth="19680" windowHeight="13560"/>
   </bookViews>
   <sheets>
     <sheet name="TASKS" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>START DATE</t>
   </si>
@@ -120,13 +120,49 @@
   </si>
   <si>
     <t>Updating as work is completed</t>
+  </si>
+  <si>
+    <t>Week 3 Assignments</t>
+  </si>
+  <si>
+    <t>Communicating with Clarity</t>
+  </si>
+  <si>
+    <t>Communicating with visual tools</t>
+  </si>
+  <si>
+    <t>Call to Action- Encouragement!</t>
+  </si>
+  <si>
+    <t>Completed just need to post</t>
+  </si>
+  <si>
+    <t>Will watch the recording</t>
+  </si>
+  <si>
+    <t>Will start on Tuesday</t>
+  </si>
+  <si>
+    <t>Plan on starting Thursday</t>
+  </si>
+  <si>
+    <t>Doing Research through the week</t>
+  </si>
+  <si>
+    <t>Going through the material</t>
+  </si>
+  <si>
+    <t>Feeling confident in this now</t>
+  </si>
+  <si>
+    <t>Mostly Complete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="13"/>
       <color theme="4" tint="0.39991454817346722"/>
@@ -170,6 +206,12 @@
       <sz val="13"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -269,7 +311,21 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -337,10 +393,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Task List" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Task List" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="7"/>
-      <tableStyleElement type="headerRow" dxfId="6"/>
-      <tableStyleElement type="totalRow" dxfId="5"/>
-      <tableStyleElement type="firstColumn" dxfId="4"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="totalRow" dxfId="9"/>
+      <tableStyleElement type="firstColumn" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -358,14 +414,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:G15" totalsRowShown="0">
   <autoFilter ref="B2:G15"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Week 2 Assignments" dataDxfId="3"/>
+    <tableColumn id="1" name="Week 2 Assignments" dataDxfId="7"/>
     <tableColumn id="4" name="START DATE"/>
     <tableColumn id="5" name="DUE DATE"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="2"/>
-    <tableColumn id="7" name="DONE" dataDxfId="1">
+    <tableColumn id="6" name="% COMPLETE" dataDxfId="6"/>
+    <tableColumn id="7" name="DONE" dataDxfId="5">
       <calculatedColumnFormula>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="NOTES" dataDxfId="0"/>
+    <tableColumn id="8" name="NOTES" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -373,6 +429,23 @@
       <x14:table altText="Task list table" altTextSummary="Enter task names, priority, status, start and end dates, percent complete and any notes."/>
     </ext>
   </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B16:G27" totalsRowShown="0">
+  <autoFilter ref="B16:G27"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Week 3 Assignments" dataDxfId="3"/>
+    <tableColumn id="4" name="START DATE"/>
+    <tableColumn id="5" name="DUE DATE"/>
+    <tableColumn id="6" name="% COMPLETE" dataDxfId="2"/>
+    <tableColumn id="7" name="DONE" dataDxfId="1">
+      <calculatedColumnFormula>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="NOTES" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -583,10 +656,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G15"/>
+  <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -902,9 +975,261 @@
         <v>27</v>
       </c>
     </row>
+    <row r="16" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6">
+        <v>42385</v>
+      </c>
+      <c r="D17" s="6">
+        <v>42392</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
+        <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="6">
+        <v>42385</v>
+      </c>
+      <c r="D18" s="6">
+        <v>42392</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="F18" s="7">
+        <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6">
+        <v>42385</v>
+      </c>
+      <c r="D19" s="6">
+        <v>42387</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10">
+        <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="6">
+        <v>42385</v>
+      </c>
+      <c r="D20" s="3">
+        <v>42392</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="10">
+        <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="6">
+        <v>42385</v>
+      </c>
+      <c r="D21" s="6">
+        <v>42391</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="6">
+        <v>42385</v>
+      </c>
+      <c r="D22" s="6">
+        <v>42392</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10">
+        <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="6">
+        <v>42385</v>
+      </c>
+      <c r="D23" s="3">
+        <v>42392</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="F23" s="10">
+        <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="6">
+        <v>42385</v>
+      </c>
+      <c r="D24" s="6">
+        <v>42392</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="7">
+        <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="6">
+        <v>42385</v>
+      </c>
+      <c r="D25" s="6">
+        <v>42392</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="F25" s="7">
+        <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="6">
+        <v>42385</v>
+      </c>
+      <c r="D26" s="6">
+        <v>42393</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="10">
+        <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="6">
+        <v>42385</v>
+      </c>
+      <c r="D27" s="3">
+        <v>42395</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="10">
+        <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E3:E15">
-    <cfRule type="dataBar" priority="12">
+  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="E3:E15 E17:E27">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -918,7 +1243,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E10">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -932,7 +1257,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E15">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -946,7 +1271,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E15">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -959,8 +1284,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E24:E27">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2CAAA6A5-027A-2F46-AFEB-7D5DB4FD52C4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="This is not a listed value." error="Please pick a value in the list." sqref="E3:E15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="This is not a listed value." error="Please pick a value in the list." sqref="E3:E15 E17:E27">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -970,8 +1309,9 @@
   <headerFooter differentFirst="1">
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -991,26 +1331,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E3:E15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{04B8B5C2-C7B5-4FE5-B018-764654046486}">
-            <x14:iconSet showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F3:F15</xm:sqref>
+          <xm:sqref>E3:E15 E17:E27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A9C5FE3C-0AB4-1D4F-A12C-49A767514356}">
@@ -1030,25 +1351,6 @@
           <xm:sqref>E7:E10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{6FB12416-BA0C-5F4B-9503-79EC74BAD0F5}">
-            <x14:iconSet showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F7:F10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8B3509D2-E89B-A849-9461-A597D40D44A3}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
@@ -1066,25 +1368,6 @@
           <xm:sqref>E11:E15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{4858762F-2D47-1A41-AF71-55B0312D791B}">
-            <x14:iconSet showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F11:F15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FE1E2BEA-A33F-4D47-8D1F-284F01390266}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
@@ -1102,7 +1385,81 @@
           <xm:sqref>E12:E15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{B087D333-1886-9349-84F7-45BAC7263994}">
+          <x14:cfRule type="dataBar" id="{2CAAA6A5-027A-2F46-AFEB-7D5DB4FD52C4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E24:E27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="22" id="{04B8B5C2-C7B5-4FE5-B018-764654046486}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F3:F15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="14" id="{6FB12416-BA0C-5F4B-9503-79EC74BAD0F5}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F7:F10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{4858762F-2D47-1A41-AF71-55B0312D791B}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F11:F15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{B087D333-1886-9349-84F7-45BAC7263994}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1120,6 +1477,63 @@
           </x14:cfRule>
           <xm:sqref>F12:F15</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{7AB7279B-E2BD-0949-AFAC-BF1390BADEC1}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F24:F27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="29" id="{591BBFDF-2058-D141-91AE-E24EDEDEC108}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F21:F23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="34" id="{B93B3E2A-0F36-DE40-B5AA-3291DA3E7BF0}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F17:F27</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/Components/Collazo_Albert_1601_BurnUpList.xlsx
+++ b/Components/Collazo_Albert_1601_BurnUpList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="1360" windowWidth="19680" windowHeight="13560"/>
+    <workbookView xWindow="5760" yWindow="1420" windowWidth="19680" windowHeight="13560"/>
   </bookViews>
   <sheets>
     <sheet name="TASKS" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
   <si>
     <t>START DATE</t>
   </si>
@@ -156,13 +156,52 @@
   </si>
   <si>
     <t>Mostly Complete</t>
+  </si>
+  <si>
+    <t>Week 4 Assignments</t>
+  </si>
+  <si>
+    <t>Call to Action- Growth</t>
+  </si>
+  <si>
+    <t>Month in Review</t>
+  </si>
+  <si>
+    <t>Being Paid for your work</t>
+  </si>
+  <si>
+    <t>SWOT Follow up</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Working on finishing by weeks end</t>
+  </si>
+  <si>
+    <t>Will start on Friday</t>
+  </si>
+  <si>
+    <t>Reflecting on how I've grown this month</t>
+  </si>
+  <si>
+    <t>Completed my research for this week</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>will write once everything else is finished</t>
+  </si>
+  <si>
+    <t>My order of work is decided based upon a couple factors. One is based on the date the work is due and the other is based on how much time I think it will take for me to do the project. Things that take little time, I attempt to complete first, and things that are due right away I complete as quickly as possible.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="13"/>
       <color theme="4" tint="0.39991454817346722"/>
@@ -212,6 +251,10 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -227,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -244,6 +287,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -256,7 +379,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -304,6 +427,33 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -311,7 +461,21 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -393,10 +557,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Task List" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Task List" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="totalRow" dxfId="13"/>
+      <tableStyleElement type="firstColumn" dxfId="12"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -414,14 +578,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:G15" totalsRowShown="0">
   <autoFilter ref="B2:G15"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Week 2 Assignments" dataDxfId="7"/>
+    <tableColumn id="1" name="Week 2 Assignments" dataDxfId="11"/>
     <tableColumn id="4" name="START DATE"/>
     <tableColumn id="5" name="DUE DATE"/>
-    <tableColumn id="6" name="% COMPLETE" dataDxfId="6"/>
-    <tableColumn id="7" name="DONE" dataDxfId="5">
+    <tableColumn id="6" name="% COMPLETE" dataDxfId="10"/>
+    <tableColumn id="7" name="DONE" dataDxfId="9">
       <calculatedColumnFormula>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="NOTES" dataDxfId="4"/>
+    <tableColumn id="8" name="NOTES" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -436,12 +600,29 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B16:G27" totalsRowShown="0">
   <autoFilter ref="B16:G27"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Week 3 Assignments" dataDxfId="3"/>
+    <tableColumn id="1" name="Week 3 Assignments" dataDxfId="7"/>
+    <tableColumn id="4" name="START DATE"/>
+    <tableColumn id="5" name="DUE DATE"/>
+    <tableColumn id="6" name="% COMPLETE" dataDxfId="6"/>
+    <tableColumn id="7" name="DONE" dataDxfId="5">
+      <calculatedColumnFormula>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="NOTES" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="B28:G39" totalsRowShown="0">
+  <autoFilter ref="B28:G39"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Week 4 Assignments" dataDxfId="3"/>
     <tableColumn id="4" name="START DATE"/>
     <tableColumn id="5" name="DUE DATE"/>
     <tableColumn id="6" name="% COMPLETE" dataDxfId="2"/>
     <tableColumn id="7" name="DONE" dataDxfId="1">
-      <calculatedColumnFormula>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
+      <calculatedColumnFormula>--(Table134[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="NOTES" dataDxfId="0"/>
   </tableColumns>
@@ -656,10 +837,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G27"/>
+  <dimension ref="B1:G42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -734,11 +915,11 @@
         <v>42385</v>
       </c>
       <c r="E4" s="8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F4" s="7">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>20</v>
@@ -776,11 +957,11 @@
         <v>42386</v>
       </c>
       <c r="E6" s="9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F6" s="10">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>22</v>
@@ -797,11 +978,11 @@
         <v>42385</v>
       </c>
       <c r="E7" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="7">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>23</v>
@@ -818,11 +999,11 @@
         <v>42382</v>
       </c>
       <c r="E8" s="8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F8" s="7">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>24</v>
@@ -839,11 +1020,11 @@
         <v>42382</v>
       </c>
       <c r="E9" s="9">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F9" s="10">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>24</v>
@@ -860,11 +1041,11 @@
         <v>42385</v>
       </c>
       <c r="E10" s="9">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F10" s="10">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>25</v>
@@ -881,11 +1062,11 @@
         <v>42384</v>
       </c>
       <c r="E11" s="9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F11" s="10">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>26</v>
@@ -902,11 +1083,11 @@
         <v>42385</v>
       </c>
       <c r="E12" s="8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F12" s="7">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>26</v>
@@ -923,11 +1104,11 @@
         <v>42385</v>
       </c>
       <c r="E13" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F13" s="7">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>28</v>
@@ -944,11 +1125,11 @@
         <v>42386</v>
       </c>
       <c r="E14" s="9">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F14" s="10">
         <f>--(Table1[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>29</v>
@@ -1027,11 +1208,11 @@
         <v>42392</v>
       </c>
       <c r="E18" s="8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F18" s="7">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>34</v>
@@ -1048,11 +1229,11 @@
         <v>42387</v>
       </c>
       <c r="E19" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="10">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>35</v>
@@ -1069,11 +1250,11 @@
         <v>42392</v>
       </c>
       <c r="E20" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F20" s="10">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>39</v>
@@ -1090,11 +1271,11 @@
         <v>42391</v>
       </c>
       <c r="E21" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="7">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>36</v>
@@ -1111,11 +1292,11 @@
         <v>42392</v>
       </c>
       <c r="E22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="10">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>37</v>
@@ -1132,11 +1313,11 @@
         <v>42392</v>
       </c>
       <c r="E23" s="9">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F23" s="10">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>25</v>
@@ -1153,11 +1334,11 @@
         <v>42392</v>
       </c>
       <c r="E24" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F24" s="7">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>38</v>
@@ -1174,11 +1355,11 @@
         <v>42392</v>
       </c>
       <c r="E25" s="8">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F25" s="7">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>40</v>
@@ -1195,11 +1376,11 @@
         <v>42393</v>
       </c>
       <c r="E26" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F26" s="10">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>29</v>
@@ -1216,20 +1397,300 @@
         <v>42395</v>
       </c>
       <c r="E27" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F27" s="10">
         <f>--(Table13[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>41</v>
       </c>
     </row>
+    <row r="28" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="6">
+        <v>42392</v>
+      </c>
+      <c r="D29" s="6">
+        <v>42399</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+      <c r="F29" s="7">
+        <f>--(Table134[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="6">
+        <v>42392</v>
+      </c>
+      <c r="D30" s="6">
+        <v>42399</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="F30" s="7">
+        <f>--(Table134[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="6">
+        <v>42392</v>
+      </c>
+      <c r="D31" s="6">
+        <v>42394</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1</v>
+      </c>
+      <c r="F31" s="10">
+        <f>--(Table134[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="6">
+        <v>42392</v>
+      </c>
+      <c r="D32" s="6">
+        <v>42399</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="10">
+        <f>--(Table134[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="6">
+        <v>42392</v>
+      </c>
+      <c r="D33" s="6">
+        <v>42400</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <f>--(Table134[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="6">
+        <v>42392</v>
+      </c>
+      <c r="D34" s="6">
+        <v>42396</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="10">
+        <f>--(Table134[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="6">
+        <v>42392</v>
+      </c>
+      <c r="D35" s="6">
+        <v>42399</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="10">
+        <f>--(Table134[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="6">
+        <v>42392</v>
+      </c>
+      <c r="D36" s="6">
+        <v>42399</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1</v>
+      </c>
+      <c r="F36" s="7">
+        <f>--(Table134[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="6">
+        <v>42392</v>
+      </c>
+      <c r="D37" s="6">
+        <v>42399</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1</v>
+      </c>
+      <c r="F37" s="7">
+        <f>--(Table134[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>1</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="6">
+        <v>42392</v>
+      </c>
+      <c r="D38" s="6">
+        <v>42400</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="F38" s="10">
+        <f>--(Table134[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="6">
+        <v>42392</v>
+      </c>
+      <c r="D39" s="6">
+        <v>42400</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0</v>
+      </c>
+      <c r="F39" s="10">
+        <f>--(Table134[[#This Row],[% COMPLETE]]&gt;=1)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+    </row>
+    <row r="41" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B40:G42"/>
+  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E3:E15 E17:E27">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1243,7 +1704,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E10">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1257,7 +1718,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E15">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1271,7 +1732,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E15">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1285,7 +1746,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E27">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1298,8 +1759,36 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E29:E39">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A93982F4-7E37-A54F-B77D-1A8666F2D944}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:E39">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9D60E135-0847-874A-9AEC-A0A24D858129}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="This is not a listed value." error="Please pick a value in the list." sqref="E3:E15 E17:E27">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="This is not a listed value." error="Please pick a value in the list." sqref="E3:E15 E17:E27 E29:E39">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1309,9 +1798,10 @@
   <headerFooter differentFirst="1">
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -1402,7 +1892,7 @@
           <xm:sqref>E24:E27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{04B8B5C2-C7B5-4FE5-B018-764654046486}">
+          <x14:cfRule type="iconSet" priority="27" id="{04B8B5C2-C7B5-4FE5-B018-764654046486}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1421,7 +1911,7 @@
           <xm:sqref>F3:F15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{6FB12416-BA0C-5F4B-9503-79EC74BAD0F5}">
+          <x14:cfRule type="iconSet" priority="19" id="{6FB12416-BA0C-5F4B-9503-79EC74BAD0F5}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1440,7 +1930,7 @@
           <xm:sqref>F7:F10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{4858762F-2D47-1A41-AF71-55B0312D791B}">
+          <x14:cfRule type="iconSet" priority="17" id="{4858762F-2D47-1A41-AF71-55B0312D791B}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1459,7 +1949,7 @@
           <xm:sqref>F11:F15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{B087D333-1886-9349-84F7-45BAC7263994}">
+          <x14:cfRule type="iconSet" priority="15" id="{B087D333-1886-9349-84F7-45BAC7263994}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1478,7 +1968,7 @@
           <xm:sqref>F12:F15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{7AB7279B-E2BD-0949-AFAC-BF1390BADEC1}">
+          <x14:cfRule type="iconSet" priority="7" id="{7AB7279B-E2BD-0949-AFAC-BF1390BADEC1}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1497,7 +1987,7 @@
           <xm:sqref>F24:F27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{591BBFDF-2058-D141-91AE-E24EDEDEC108}">
+          <x14:cfRule type="iconSet" priority="34" id="{591BBFDF-2058-D141-91AE-E24EDEDEC108}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1516,7 +2006,7 @@
           <xm:sqref>F21:F23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="34" id="{B93B3E2A-0F36-DE40-B5AA-3291DA3E7BF0}">
+          <x14:cfRule type="iconSet" priority="39" id="{B93B3E2A-0F36-DE40-B5AA-3291DA3E7BF0}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1534,6 +2024,97 @@
           </x14:cfRule>
           <xm:sqref>F17:F27</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A93982F4-7E37-A54F-B77D-1A8666F2D944}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E29:E39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9D60E135-0847-874A-9AEC-A0A24D858129}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E36:E39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{8F44DCE5-BE75-AF4B-9EC2-1E96B3064065}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F36:F39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{2237B7C1-A284-6242-AF83-F9018F40336C}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F33:F35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="5" id="{A4C7A276-0D29-904B-A4C5-04DD9875FB3C}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F29:F39</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
